--- a/mcmaster_excel/316_Stainless_Steel_Pan_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/316_Stainless_Steel_Pan_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,119 +434,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>93923A351</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$12.60</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>316 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -581,12 +551,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>93923A352</t>
+          <t>93923A351</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>$12.60</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -603,7 +573,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -638,12 +608,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>93923A353</t>
+          <t>93923A352</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14.40</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -660,7 +630,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -695,12 +665,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>93923A354</t>
+          <t>93923A353</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>14.40</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -717,7 +687,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -747,17 +717,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>93923A355</t>
+          <t>93923A354</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -774,7 +744,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -784,12 +754,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.082"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,22 +774,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>93923A372</t>
+          <t>93923A355</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -831,7 +801,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -861,17 +831,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>93923A375</t>
+          <t>93923A372</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>15.20</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -888,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -923,12 +893,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>93923A378</t>
+          <t>93923A375</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -945,7 +915,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -980,12 +950,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>93923A381</t>
+          <t>93923A378</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1002,7 +972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1037,12 +1007,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>93923A384</t>
+          <t>93923A381</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1059,7 +1029,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1069,12 +1039,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.096"</t>
+          <t>0.082"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1094,17 +1064,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>93923A421</t>
+          <t>93923A384</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1116,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1151,12 +1121,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>93923A424</t>
+          <t>93923A421</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1173,7 +1143,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1208,12 +1178,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>93923A427</t>
+          <t>93923A424</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1230,7 +1200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1265,12 +1235,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>93923A430</t>
+          <t>93923A427</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14.18</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1287,7 +1257,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1322,12 +1292,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>93923A433</t>
+          <t>93923A430</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15.33</t>
+          <t>14.18</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1344,7 +1314,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1354,12 +1324,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.110"</t>
+          <t>0.096"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1379,17 +1349,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>93923A539</t>
+          <t>93923A433</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>15.33</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1401,7 +1371,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1436,12 +1406,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>93923A533</t>
+          <t>93923A539</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1458,7 +1428,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1493,12 +1463,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>93923A536</t>
+          <t>93923A533</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>15.78</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1515,7 +1485,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1545,17 +1515,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>93923A542</t>
+          <t>93923A536</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>15.78</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1572,7 +1542,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1607,12 +1577,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>93923A545</t>
+          <t>93923A542</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1629,7 +1599,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1639,12 +1609,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.144"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1664,17 +1634,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>93923A698</t>
+          <t>93923A545</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10.56</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1686,7 +1656,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1721,12 +1691,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>93923A701</t>
+          <t>93923A698</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1743,7 +1713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1778,12 +1748,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>93923A704</t>
+          <t>93923A701</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13.66</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1800,7 +1770,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1835,12 +1805,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>93923A707</t>
+          <t>93923A704</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15.94</t>
+          <t>13.66</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1857,55 +1827,112 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.144"</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>93923A707</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15.94</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>316 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>0.492"</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.144"</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>93923A713</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>7.47</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>316 Stainless Steel</t>
         </is>
